--- a/chat_log.xlsx
+++ b/chat_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,6 +666,35 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Bagaimana tanggapan masyarakat terhadap RUU TNII?</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Berdasarkan informasi yang tersedia, tanggapan masyarakat terhadap RUU TNI sangat beragam. Ada yang mendukung dan ada yang menolak.
+Sebagian masyarakat mendukung RUU TNI karena mereka percaya bahwa RUU ini akan membantu meningkatkan kemampuan dan profesionalisme TNI, serta membuat TNI lebih adaptif dan sesuai dengan kebutuhan zaman. Mereka juga percaya bahwa RUU ini akan membantu meningkatkan supremasi sipil dan mengurangi keterlibatan TNI dalam politik praktis.
+Namun, sebagian lainnya menolak RUU TNI karena mereka khawatir bahwa RUU ini akan memberikan kekuasaan yang terlalu besar kepada TNI dan mengancam supremasi sipil. Mereka juga khawatir bahwa RUU ini akan membuka peluang bagi TNI untuk ikut serta dalam pemilu dan politik praktis tanpa harus mengundurkan diri.
+Ada juga yang mengkritik RUU TNI karena mereka percaya bahwa RUU ini hanya untuk melindungi kepentingan tertentu, seperti Prabowo Subianto, dan bukan untuk kepentingan rakyat. Mereka juga mengkritik bahwa RUU ini tidak transparan dan tidak melibatkan masyarakat dalam proses pengambilan keputusan.
+Dalam beberapa informasi, terlihat bahwa masyarakat juga khawatir tentang kemungkinan TNI akan menjadi lebih dominan dalam pemerintahan dan mengancam demokrasi. Mereka juga mengkritik bahwa RUU ini tidak sesuai dengan prinsip demokrasi dan supremasi sipil.
+Dalam keseluruhan, tanggapan masyarakat terhadap RUU TNI sangat beragam dan terpolarisasi. Ada yang mendukung dan ada yang menolak, dan masing-masing memiliki alasan dan kekhawatiran yang berbeda-beda.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Mengapa masyarakat khawatir tentang kemungkinan TNI akan menjadi lebih dominan dalam pemerintahan?</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Masyarakat khawatir tentang kemungkinan TNI akan menjadi lebih dominan dalam pemerintahan karena beberapa alasan. Pertama, RUU TNI ini dianggap sebagai upaya untuk mengembalikan dwifungsi ABRI yang pernah ada pada masa pemerintahan Soeharto, di mana TNI memiliki peran yang sangat besar dalam pemerintahan dan politik. Kedua, masyarakat khawatir bahwa dengan disahkannya RUU TNI, TNI akan menjadi lebih kuat dan dominan dalam pemerintahan, sehingga dapat mengancam supremasi sipil dan demokrasi. Ketiga, beberapa pihak juga khawatir bahwa RUU TNI ini akan memperkuat kekuasaan militer dan mengurangi peran sipil dalam pemerintahan. Oleh karena itu, masyarakat khawatir bahwa RUU TNI ini akan membawa Indonesia kembali ke masa lalu yang otoriter dan tidak demokratis.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
